--- a/test_1.xlsx
+++ b/test_1.xlsx
@@ -1368,9 +1368,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:AC212"/>
+  <dimension ref="A2:AQ212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0" zoomScale="134">
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0" zoomScale="134">
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
@@ -1380,7 +1380,7 @@
     <col customWidth="1" max="2" min="2" width="21.6640625"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:43">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1468,8 +1468,50 @@
       <c r="AC2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AD2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1557,8 +1599,50 @@
       <c r="AC3" t="n">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AD3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>9126180</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>103</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>3370</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1640,8 +1724,47 @@
       <c r="AC4" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AD4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>257</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>3827</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1723,8 +1846,47 @@
       <c r="AC5" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AD5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>369</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>4753</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1806,8 +1968,47 @@
       <c r="AC6" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="AD6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>180</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1623</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1889,8 +2090,47 @@
       <c r="AC7" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AD7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1892</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1972,8 +2212,47 @@
       <c r="AC8" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AD8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>47</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1311</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2055,8 +2334,47 @@
       <c r="AC9" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AD9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>111</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>5574</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -2138,8 +2456,47 @@
       <c r="AC10" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AD10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>175</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>3020</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -2221,8 +2578,47 @@
       <c r="AC11" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="AD11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>111</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1401</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -2304,8 +2700,47 @@
       <c r="AC12" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="AD12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1432</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -2387,8 +2822,47 @@
       <c r="AC13" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="AD13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>82</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>3948</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -2470,8 +2944,47 @@
       <c r="AC14" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="AD14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>242</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>2667</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2553,8 +3066,47 @@
       <c r="AC15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="AD15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>180</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1404</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -2636,8 +3188,47 @@
       <c r="AC16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="AD16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>83</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>8573</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2719,8 +3310,47 @@
       <c r="AC17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:29">
+      <c r="AD17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>216</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -2802,8 +3432,47 @@
       <c r="AC18" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:29">
+      <c r="AD18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>79</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>653</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -2885,8 +3554,47 @@
       <c r="AC19" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="AD19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>66</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>939</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -2968,8 +3676,47 @@
       <c r="AC20" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AD20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>54</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>173</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -3051,8 +3798,47 @@
       <c r="AC21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:29">
+      <c r="AD21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>68</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>236</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -3134,8 +3920,47 @@
       <c r="AC22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:29">
+      <c r="AD22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>365</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -3223,8 +4048,50 @@
       <c r="AC23" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:29">
+      <c r="AD23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>75080</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>246</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -3312,8 +4179,50 @@
       <c r="AC24" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:29">
+      <c r="AD24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>2780938</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>544</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -3395,8 +4304,47 @@
       <c r="AC25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:29">
+      <c r="AD25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>61</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>151</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -3478,8 +4426,47 @@
       <c r="AC26" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:29">
+      <c r="AD26" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>179</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -3561,8 +4548,47 @@
       <c r="AC27" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:29">
+      <c r="AD27" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>115</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>265</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -3644,8 +4670,47 @@
       <c r="AC28" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:29">
+      <c r="AD28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>113</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>455</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -3727,8 +4792,47 @@
       <c r="AC29" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:29">
+      <c r="AD29" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>157</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>689</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -3810,8 +4914,47 @@
       <c r="AC30" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:29">
+      <c r="AD30" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>848</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -3893,8 +5036,47 @@
       <c r="AC31" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:29">
+      <c r="AD31" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>39</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>183</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -3976,8 +5158,47 @@
       <c r="AC32" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:29">
+      <c r="AD32" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>127</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>779</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -4059,8 +5280,47 @@
       <c r="AC33" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:29">
+      <c r="AD33" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>518</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -4142,8 +5402,47 @@
       <c r="AC34" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:29">
+      <c r="AD34" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>819</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -4225,8 +5524,47 @@
       <c r="AC35" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:29">
+      <c r="AD35" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>31</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>138</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -4308,8 +5646,47 @@
       <c r="AC36" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:29">
+      <c r="AD36" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>72</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>150</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -4391,8 +5768,47 @@
       <c r="AC37" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:29">
+      <c r="AD37" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>482</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -4474,8 +5890,47 @@
       <c r="AC38" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:29">
+      <c r="AD38" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -4557,8 +6012,47 @@
       <c r="AC39" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:29">
+      <c r="AD39" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43">
       <c r="A40" t="s">
         <v>118</v>
       </c>
@@ -4640,8 +6134,47 @@
       <c r="AC40" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:29">
+      <c r="AD40" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -4723,8 +6256,47 @@
       <c r="AC41" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:29">
+      <c r="AD41" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43">
       <c r="A42" t="s">
         <v>124</v>
       </c>
@@ -4806,8 +6378,47 @@
       <c r="AC42" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:29">
+      <c r="AD42" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -4889,8 +6500,47 @@
       <c r="AC43" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:29">
+      <c r="AD43" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43">
       <c r="A44" t="s">
         <v>130</v>
       </c>
@@ -4972,8 +6622,47 @@
       <c r="AC44" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:29">
+      <c r="AD44" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43">
       <c r="A45" t="s">
         <v>133</v>
       </c>
@@ -5055,8 +6744,47 @@
       <c r="AC45" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:29">
+      <c r="AD45" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43">
       <c r="A46" t="s">
         <v>136</v>
       </c>
@@ -5138,8 +6866,47 @@
       <c r="AC46" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:29">
+      <c r="AD46" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:43">
       <c r="A47" t="s">
         <v>139</v>
       </c>
@@ -5221,8 +6988,47 @@
       <c r="AC47" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:29">
+      <c r="AD47" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>91</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:43">
       <c r="A48" t="s">
         <v>142</v>
       </c>
@@ -5304,8 +7110,47 @@
       <c r="AC48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:29">
+      <c r="AD48" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:43">
       <c r="A49" t="s">
         <v>145</v>
       </c>
@@ -5387,8 +7232,47 @@
       <c r="AC49" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:29">
+      <c r="AD49" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:43">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -5470,8 +7354,47 @@
       <c r="AC50" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:29">
+      <c r="AD50" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>60</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:43">
       <c r="A51" t="s">
         <v>151</v>
       </c>
@@ -5515,7 +7438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:29">
+    <row r="52" spans="1:43">
       <c r="A52" t="s">
         <v>153</v>
       </c>
@@ -5559,7 +7482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:29">
+    <row r="53" spans="1:43">
       <c r="A53" t="s">
         <v>156</v>
       </c>
@@ -5603,7 +7526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:29">
+    <row r="54" spans="1:43">
       <c r="A54" t="s">
         <v>159</v>
       </c>
@@ -5647,7 +7570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:29">
+    <row r="55" spans="1:43">
       <c r="A55" t="s">
         <v>162</v>
       </c>
@@ -5691,7 +7614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:29">
+    <row r="56" spans="1:43">
       <c r="A56" t="s">
         <v>164</v>
       </c>
@@ -5735,7 +7658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:29">
+    <row r="57" spans="1:43">
       <c r="A57" t="s">
         <v>167</v>
       </c>
@@ -5779,7 +7702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:29">
+    <row r="58" spans="1:43">
       <c r="A58" t="s">
         <v>170</v>
       </c>
@@ -5823,7 +7746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:29">
+    <row r="59" spans="1:43">
       <c r="A59" t="s">
         <v>173</v>
       </c>
@@ -5867,7 +7790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:29">
+    <row r="60" spans="1:43">
       <c r="A60" t="s">
         <v>176</v>
       </c>
@@ -5911,7 +7834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:29">
+    <row r="61" spans="1:43">
       <c r="A61" t="s">
         <v>179</v>
       </c>
@@ -5955,7 +7878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:29">
+    <row r="62" spans="1:43">
       <c r="A62" t="s">
         <v>181</v>
       </c>
@@ -5999,7 +7922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:29">
+    <row r="63" spans="1:43">
       <c r="A63" t="s">
         <v>184</v>
       </c>
@@ -6043,7 +7966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:29">
+    <row r="64" spans="1:43">
       <c r="A64" t="s">
         <v>187</v>
       </c>
@@ -6087,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:29">
+    <row r="65" spans="1:43">
       <c r="A65" t="s">
         <v>190</v>
       </c>
@@ -6131,7 +8054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:29">
+    <row r="66" spans="1:43">
       <c r="A66" t="s">
         <v>193</v>
       </c>
@@ -6175,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:29">
+    <row r="67" spans="1:43">
       <c r="A67" t="s">
         <v>196</v>
       </c>
@@ -6219,7 +8142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:29">
+    <row r="68" spans="1:43">
       <c r="A68" t="s">
         <v>199</v>
       </c>
@@ -6263,7 +8186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:29">
+    <row r="69" spans="1:43">
       <c r="A69" t="s">
         <v>202</v>
       </c>
@@ -6307,7 +8230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:29">
+    <row r="70" spans="1:43">
       <c r="A70" t="s">
         <v>204</v>
       </c>
@@ -6351,712 +8274,712 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:29">
+    <row r="71" spans="1:43">
       <c r="A71" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="72" spans="1:29">
+    <row r="72" spans="1:43">
       <c r="A72" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="1:29">
+    <row r="73" spans="1:43">
       <c r="A73" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="74" spans="1:29">
+    <row r="74" spans="1:43">
       <c r="A74" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:43">
       <c r="A75" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:43">
       <c r="A76" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:43">
       <c r="A77" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" spans="1:43">
       <c r="A78" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="79" spans="1:29">
+    <row r="79" spans="1:43">
       <c r="A79" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="80" spans="1:29">
+    <row r="80" spans="1:43">
       <c r="A80" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="81" spans="1:29">
+    <row r="81" spans="1:43">
       <c r="A81" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="82" spans="1:29">
+    <row r="82" spans="1:43">
       <c r="A82" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="83" spans="1:29">
+    <row r="83" spans="1:43">
       <c r="A83" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="84" spans="1:29">
+    <row r="84" spans="1:43">
       <c r="A84" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="85" spans="1:29">
+    <row r="85" spans="1:43">
       <c r="A85" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="86" spans="1:29">
+    <row r="86" spans="1:43">
       <c r="A86" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="87" spans="1:29">
+    <row r="87" spans="1:43">
       <c r="A87" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="88" spans="1:29">
+    <row r="88" spans="1:43">
       <c r="A88" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="89" spans="1:29">
+    <row r="89" spans="1:43">
       <c r="A89" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="90" spans="1:29">
+    <row r="90" spans="1:43">
       <c r="A90" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="91" spans="1:29">
+    <row r="91" spans="1:43">
       <c r="A91" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="1:29">
+    <row r="92" spans="1:43">
       <c r="A92" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="93" spans="1:29">
+    <row r="93" spans="1:43">
       <c r="A93" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:29">
+    <row r="94" spans="1:43">
       <c r="A94" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="95" spans="1:29">
+    <row r="95" spans="1:43">
       <c r="A95" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="96" spans="1:29">
+    <row r="96" spans="1:43">
       <c r="A96" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="97" spans="1:29">
+    <row r="97" spans="1:43">
       <c r="A97" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="98" spans="1:29">
+    <row r="98" spans="1:43">
       <c r="A98" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="99" spans="1:29">
+    <row r="99" spans="1:43">
       <c r="A99" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="100" spans="1:29">
+    <row r="100" spans="1:43">
       <c r="A100" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="101" spans="1:29">
+    <row r="101" spans="1:43">
       <c r="A101" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="102" spans="1:29">
+    <row r="102" spans="1:43">
       <c r="A102" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="103" spans="1:29">
+    <row r="103" spans="1:43">
       <c r="A103" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="104" spans="1:29">
+    <row r="104" spans="1:43">
       <c r="A104" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="105" spans="1:29">
+    <row r="105" spans="1:43">
       <c r="A105" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="106" spans="1:29">
+    <row r="106" spans="1:43">
       <c r="A106" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="107" spans="1:29">
+    <row r="107" spans="1:43">
       <c r="A107" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="108" spans="1:29">
+    <row r="108" spans="1:43">
       <c r="A108" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="109" spans="1:29">
+    <row r="109" spans="1:43">
       <c r="A109" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="110" spans="1:29">
+    <row r="110" spans="1:43">
       <c r="A110" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="111" spans="1:29">
+    <row r="111" spans="1:43">
       <c r="A111" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="112" spans="1:29">
+    <row r="112" spans="1:43">
       <c r="A112" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="113" spans="1:29">
+    <row r="113" spans="1:43">
       <c r="A113" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="114" spans="1:29">
+    <row r="114" spans="1:43">
       <c r="A114" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="115" spans="1:29">
+    <row r="115" spans="1:43">
       <c r="A115" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="116" spans="1:29">
+    <row r="116" spans="1:43">
       <c r="A116" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="117" spans="1:29">
+    <row r="117" spans="1:43">
       <c r="A117" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="118" spans="1:29">
+    <row r="118" spans="1:43">
       <c r="A118" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="119" spans="1:29">
+    <row r="119" spans="1:43">
       <c r="A119" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="120" spans="1:29">
+    <row r="120" spans="1:43">
       <c r="A120" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="121" spans="1:29">
+    <row r="121" spans="1:43">
       <c r="A121" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="122" spans="1:29">
+    <row r="122" spans="1:43">
       <c r="A122" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="123" spans="1:29">
+    <row r="123" spans="1:43">
       <c r="A123" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="124" spans="1:29">
+    <row r="124" spans="1:43">
       <c r="A124" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="125" spans="1:29">
+    <row r="125" spans="1:43">
       <c r="A125" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="126" spans="1:29">
+    <row r="126" spans="1:43">
       <c r="A126" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="127" spans="1:29">
+    <row r="127" spans="1:43">
       <c r="A127" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="128" spans="1:29">
+    <row r="128" spans="1:43">
       <c r="A128" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="129" spans="1:29">
+    <row r="129" spans="1:43">
       <c r="A129" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="130" spans="1:29">
+    <row r="130" spans="1:43">
       <c r="A130" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="131" spans="1:29">
+    <row r="131" spans="1:43">
       <c r="A131" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="132" spans="1:29">
+    <row r="132" spans="1:43">
       <c r="A132" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="133" spans="1:29">
+    <row r="133" spans="1:43">
       <c r="A133" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="134" spans="1:29">
+    <row r="134" spans="1:43">
       <c r="A134" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="135" spans="1:29">
+    <row r="135" spans="1:43">
       <c r="A135" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:29">
+    <row r="136" spans="1:43">
       <c r="A136" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="137" spans="1:29">
+    <row r="137" spans="1:43">
       <c r="A137" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="138" spans="1:29">
+    <row r="138" spans="1:43">
       <c r="A138" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="139" spans="1:29">
+    <row r="139" spans="1:43">
       <c r="A139" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="140" spans="1:29">
+    <row r="140" spans="1:43">
       <c r="A140" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="141" spans="1:29">
+    <row r="141" spans="1:43">
       <c r="A141" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="142" spans="1:29">
+    <row r="142" spans="1:43">
       <c r="A142" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="143" spans="1:29">
+    <row r="143" spans="1:43">
       <c r="A143" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="144" spans="1:29">
+    <row r="144" spans="1:43">
       <c r="A144" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="145" spans="1:29">
+    <row r="145" spans="1:43">
       <c r="A145" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="146" spans="1:29">
+    <row r="146" spans="1:43">
       <c r="A146" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="147" spans="1:29">
+    <row r="147" spans="1:43">
       <c r="A147" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="148" spans="1:29">
+    <row r="148" spans="1:43">
       <c r="A148" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="149" spans="1:29">
+    <row r="149" spans="1:43">
       <c r="A149" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="150" spans="1:29">
+    <row r="150" spans="1:43">
       <c r="A150" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="151" spans="1:29">
+    <row r="151" spans="1:43">
       <c r="A151" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="152" spans="1:29">
+    <row r="152" spans="1:43">
       <c r="A152" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="153" spans="1:29">
+    <row r="153" spans="1:43">
       <c r="A153" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="154" spans="1:29">
+    <row r="154" spans="1:43">
       <c r="A154" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="155" spans="1:29">
+    <row r="155" spans="1:43">
       <c r="A155" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="156" spans="1:29">
+    <row r="156" spans="1:43">
       <c r="A156" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="157" spans="1:29">
+    <row r="157" spans="1:43">
       <c r="A157" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="158" spans="1:29">
+    <row r="158" spans="1:43">
       <c r="A158" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="159" spans="1:29">
+    <row r="159" spans="1:43">
       <c r="A159" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="160" spans="1:29">
+    <row r="160" spans="1:43">
       <c r="A160" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="161" spans="1:29">
+    <row r="161" spans="1:43">
       <c r="A161" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="162" spans="1:29">
+    <row r="162" spans="1:43">
       <c r="A162" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="163" spans="1:29">
+    <row r="163" spans="1:43">
       <c r="A163" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="164" spans="1:29">
+    <row r="164" spans="1:43">
       <c r="A164" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="165" spans="1:29">
+    <row r="165" spans="1:43">
       <c r="A165" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="166" spans="1:29">
+    <row r="166" spans="1:43">
       <c r="A166" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="167" spans="1:29">
+    <row r="167" spans="1:43">
       <c r="A167" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="168" spans="1:29">
+    <row r="168" spans="1:43">
       <c r="A168" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="169" spans="1:29">
+    <row r="169" spans="1:43">
       <c r="A169" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="170" spans="1:29">
+    <row r="170" spans="1:43">
       <c r="A170" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="171" spans="1:29">
+    <row r="171" spans="1:43">
       <c r="A171" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="172" spans="1:29">
+    <row r="172" spans="1:43">
       <c r="A172" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="173" spans="1:29">
+    <row r="173" spans="1:43">
       <c r="A173" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="174" spans="1:29">
+    <row r="174" spans="1:43">
       <c r="A174" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="175" spans="1:29">
+    <row r="175" spans="1:43">
       <c r="A175" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="176" spans="1:29">
+    <row r="176" spans="1:43">
       <c r="A176" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="177" spans="1:29">
+    <row r="177" spans="1:43">
       <c r="A177" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="178" spans="1:29">
+    <row r="178" spans="1:43">
       <c r="A178" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="179" spans="1:29">
+    <row r="179" spans="1:43">
       <c r="A179" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="180" spans="1:29">
+    <row r="180" spans="1:43">
       <c r="A180" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="181" spans="1:29">
+    <row r="181" spans="1:43">
       <c r="A181" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="182" spans="1:29">
+    <row r="182" spans="1:43">
       <c r="A182" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="183" spans="1:29">
+    <row r="183" spans="1:43">
       <c r="A183" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="184" spans="1:29">
+    <row r="184" spans="1:43">
       <c r="A184" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="185" spans="1:29">
+    <row r="185" spans="1:43">
       <c r="A185" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="186" spans="1:29">
+    <row r="186" spans="1:43">
       <c r="A186" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="187" spans="1:29">
+    <row r="187" spans="1:43">
       <c r="A187" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="188" spans="1:29">
+    <row r="188" spans="1:43">
       <c r="A188" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="189" spans="1:29">
+    <row r="189" spans="1:43">
       <c r="A189" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="190" spans="1:29">
+    <row r="190" spans="1:43">
       <c r="A190" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="191" spans="1:29">
+    <row r="191" spans="1:43">
       <c r="A191" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="192" spans="1:29">
+    <row r="192" spans="1:43">
       <c r="A192" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="193" spans="1:29">
+    <row r="193" spans="1:43">
       <c r="A193" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="194" spans="1:29">
+    <row r="194" spans="1:43">
       <c r="A194" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="195" spans="1:29">
+    <row r="195" spans="1:43">
       <c r="A195" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="196" spans="1:29">
+    <row r="196" spans="1:43">
       <c r="A196" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="197" spans="1:29">
+    <row r="197" spans="1:43">
       <c r="A197" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="198" spans="1:29">
+    <row r="198" spans="1:43">
       <c r="A198" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="199" spans="1:29">
+    <row r="199" spans="1:43">
       <c r="A199" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="200" spans="1:29">
+    <row r="200" spans="1:43">
       <c r="A200" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="201" spans="1:29">
+    <row r="201" spans="1:43">
       <c r="A201" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="202" spans="1:29">
+    <row r="202" spans="1:43">
       <c r="A202" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="203" spans="1:29">
+    <row r="203" spans="1:43">
       <c r="A203" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="204" spans="1:29">
+    <row r="204" spans="1:43">
       <c r="A204" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="205" spans="1:29">
+    <row r="205" spans="1:43">
       <c r="A205" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="206" spans="1:29">
+    <row r="206" spans="1:43">
       <c r="A206" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="207" spans="1:29">
+    <row r="207" spans="1:43">
       <c r="A207" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="208" spans="1:29">
+    <row r="208" spans="1:43">
       <c r="A208" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="209" spans="1:29">
+    <row r="209" spans="1:43">
       <c r="A209" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="210" spans="1:29">
+    <row r="210" spans="1:43">
       <c r="A210" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="211" spans="1:29">
+    <row r="211" spans="1:43">
       <c r="A211" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="212" spans="1:29">
+    <row r="212" spans="1:43">
       <c r="A212" t="s">
         <v>346</v>
       </c>
